--- a/paramData Excels/P0054.xlsx
+++ b/paramData Excels/P0054.xlsx
@@ -1,25 +1,69 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="7752"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Author</author>
+  </authors>
+  <commentList>
+    <comment ref="R1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Param item
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>is the item already used in the table?</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="S1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">item name in dated param P0050
+(e-g) P0050 is param; item could be FREQ, BCUR
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="32">
   <si>
     <t>COLUMN_KEY</t>
   </si>
@@ -69,44 +113,59 @@
     <t>lookup_table</t>
   </si>
   <si>
+    <t>ORDINAL_POSITION</t>
+  </si>
+  <si>
+    <t>NULL</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>same_param_item</t>
+  </si>
+  <si>
+    <t>param_datedItem</t>
+  </si>
+  <si>
     <t>arrayName</t>
   </si>
   <si>
-    <t>same_param_item</t>
-  </si>
-  <si>
-    <t>param_datedItem</t>
-  </si>
-  <si>
-    <t>ORDINAL_POSITION</t>
-  </si>
-  <si>
-    <t>Null</t>
-  </si>
-  <si>
-    <t>y</t>
-  </si>
-  <si>
-    <t>dataPairs</t>
-  </si>
-  <si>
     <t>P0054</t>
   </si>
   <si>
+    <t>Trancodes</t>
+  </si>
+  <si>
     <t>Transaction</t>
   </si>
   <si>
-    <t>string</t>
-  </si>
-  <si>
-    <t>Trancodes</t>
+    <t>Transaction Code</t>
+  </si>
+  <si>
+    <t>P0050</t>
+  </si>
+  <si>
+    <t>TRANREVEXCL</t>
+  </si>
+  <si>
+    <t>Help_text</t>
+  </si>
+  <si>
+    <t>help_desc</t>
+  </si>
+  <si>
+    <t>The table is used configure the transaction codes</t>
+  </si>
+  <si>
+    <t>[0]string</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -114,13 +173,76 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1" tint="4.9989318521683403E-2"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1" tint="4.9989318521683403E-2"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor rgb="FFC0C0C0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor rgb="FFC0C0C0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2DCDB"/>
+        <bgColor rgb="FFCCCCFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -135,14 +257,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -165,39 +295,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="1F497D"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="EEECE1"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4F81BD"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="C0504D"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="9BBB59"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="8064A2"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="4BACC6"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="F79646"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -232,7 +362,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -276,227 +406,264 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AA2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q2" sqref="Q2"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="21.33203125" customWidth="1"/>
-    <col min="10" max="10" width="22.6640625" customWidth="1"/>
+    <col min="1" max="1" width="3.7109375" customWidth="1"/>
+    <col min="3" max="3" width="4.85546875" customWidth="1"/>
+    <col min="4" max="4" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.42578125" customWidth="1"/>
+    <col min="10" max="10" width="34.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="14" width="3.42578125" customWidth="1"/>
+    <col min="15" max="15" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="7.5703125" customWidth="1"/>
+    <col min="17" max="17" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.42578125" customWidth="1"/>
+    <col min="19" max="19" width="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20">
-      <c r="A1" t="s">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="O1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s">
+      <c r="P1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="Q1" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="R1" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="S1" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="T1" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="R1" t="s">
-        <v>17</v>
-      </c>
-      <c r="S1" t="s">
-        <v>18</v>
-      </c>
-      <c r="T1" t="s">
-        <v>19</v>
+      <c r="U1" s="6"/>
+      <c r="Z1" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="AA1" s="8" t="s">
+        <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:20">
-      <c r="A2" t="s">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
         <v>22</v>
-      </c>
-      <c r="B2" t="s">
-        <v>23</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -505,28 +672,41 @@
         <v>24</v>
       </c>
       <c r="E2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J2" t="s">
         <v>25</v>
       </c>
-      <c r="F2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H2" t="s">
-        <v>20</v>
-      </c>
-      <c r="J2" t="s">
-        <v>24</v>
-      </c>
       <c r="K2" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q2" t="s">
+        <v>18</v>
+      </c>
+      <c r="O2" t="s">
         <v>26</v>
+      </c>
+      <c r="Q2" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="S2" t="s">
+        <v>27</v>
+      </c>
+      <c r="T2">
+        <v>1</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/paramData Excels/P0054.xlsx
+++ b/paramData Excels/P0054.xlsx
@@ -1,69 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Go\Param_Excel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BDCC859F-ED4C-41E7-A562-2F2D5FBAF230}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="124519"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author>Author</author>
-  </authors>
-  <commentList>
-    <comment ref="R1" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Param item
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>is the item already used in the table?</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="S1" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">item name in dated param P0050
-(e-g) P0050 is param; item could be FREQ, BCUR
-</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="28">
   <si>
     <t>COLUMN_KEY</t>
   </si>
@@ -113,59 +75,47 @@
     <t>lookup_table</t>
   </si>
   <si>
+    <t>arrayName</t>
+  </si>
+  <si>
+    <t>same_param_item</t>
+  </si>
+  <si>
+    <t>param_datedItem</t>
+  </si>
+  <si>
     <t>ORDINAL_POSITION</t>
   </si>
   <si>
-    <t>NULL</t>
-  </si>
-  <si>
-    <t>Y</t>
-  </si>
-  <si>
-    <t>same_param_item</t>
-  </si>
-  <si>
-    <t>param_datedItem</t>
-  </si>
-  <si>
-    <t>arrayName</t>
+    <t>Null</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>dataPairs</t>
   </si>
   <si>
     <t>P0054</t>
   </si>
   <si>
+    <t>Transaction</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
     <t>Trancodes</t>
   </si>
   <si>
-    <t>Transaction</t>
-  </si>
-  <si>
     <t>Transaction Code</t>
-  </si>
-  <si>
-    <t>P0050</t>
-  </si>
-  <si>
-    <t>TRANREVEXCL</t>
-  </si>
-  <si>
-    <t>Help_text</t>
-  </si>
-  <si>
-    <t>help_desc</t>
-  </si>
-  <si>
-    <t>The table is used configure the transaction codes</t>
-  </si>
-  <si>
-    <t>[0]string</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -174,78 +124,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1" tint="4.9989318521683403E-2"/>
+      <sz val="7.5"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1" tint="4.9989318521683403E-2"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
   </fonts>
-  <fills count="8">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
-        <bgColor rgb="FFC0C0C0"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.59999389629810485"/>
-        <bgColor rgb="FFC0C0C0"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2DCDB"/>
-        <bgColor rgb="FFCCCCFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00B0F0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -253,26 +147,36 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -295,39 +199,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="1F497D"/>
+        <a:srgbClr val="44546A"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="EEECE1"/>
+        <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4F81BD"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="C0504D"/>
+        <a:srgbClr val="ED7D31"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="9BBB59"/>
+        <a:srgbClr val="A5A5A5"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="8064A2"/>
+        <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4BACC6"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="F79646"/>
+        <a:srgbClr val="70AD47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0000FF"/>
+        <a:srgbClr val="0563C1"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="800080"/>
+        <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -362,7 +266,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -406,264 +310,229 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="35000">
-              <a:schemeClr val="phClr">
-                <a:tint val="37000"/>
-                <a:satMod val="300000"/>
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-                <a:satMod val="350000"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="80000">
-              <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
-                <a:satMod val="130000"/>
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
-                <a:satMod val="135000"/>
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
+                <a:alpha val="63000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="40000">
-              <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
-                <a:satMod val="255000"/>
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
-                <a:satMod val="200000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-          </a:path>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
+      <selection activeCell="Z2" sqref="Z2:AA2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.7109375" customWidth="1"/>
-    <col min="3" max="3" width="4.85546875" customWidth="1"/>
-    <col min="4" max="4" width="23.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.42578125" customWidth="1"/>
-    <col min="10" max="10" width="34.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="14" width="3.42578125" customWidth="1"/>
-    <col min="15" max="15" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="7.5703125" customWidth="1"/>
-    <col min="17" max="17" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="10.42578125" customWidth="1"/>
-    <col min="19" max="19" width="17" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.33203125" customWidth="1"/>
+    <col min="10" max="10" width="22.6640625" customWidth="1"/>
+    <col min="26" max="26" width="49.33203125" customWidth="1"/>
+    <col min="27" max="27" width="47.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="L1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="M1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="N1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="O1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="P1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="R1" s="4" t="s">
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
         <v>19</v>
       </c>
-      <c r="S1" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="T1" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="U1" s="6"/>
-      <c r="Z1" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="AA1" s="8" t="s">
-        <v>29</v>
-      </c>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>22</v>
+      </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -672,41 +541,34 @@
         <v>24</v>
       </c>
       <c r="E2" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="F2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="G2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="H2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="J2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K2" t="s">
-        <v>18</v>
-      </c>
-      <c r="O2" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q2" t="s">
         <v>26</v>
       </c>
-      <c r="Q2" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="S2" t="s">
+      <c r="Z2" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="T2">
-        <v>1</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>30</v>
+      <c r="AA2" s="1" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>